--- a/StudentData/Assessments/Unit5/5.1.2/social_sustainablity.xlsx
+++ b/StudentData/Assessments/Unit5/5.1.2/social_sustainablity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc.sharepoint.com/sites/SophiaAcademicsCD/PW/Business Data Analytics/Assessments/Assessment Data/Unit 4/4.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit5/5.1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65120614-42D7-45E3-BB0D-8FAD5C28EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{65120614-42D7-45E3-BB0D-8FAD5C28EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1418784A-1E9F-4D94-9341-4EFBCA3372A4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{13C43DE9-CAA6-44DD-8E79-6836582D25CA}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{13C43DE9-CAA6-44DD-8E79-6836582D25CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Week</t>
   </si>
   <si>
-    <t>Social_Media_Posts (x)</t>
+    <t>Social_Media_Posts</t>
   </si>
   <si>
-    <t>Newsletter_Sign-ups (y)</t>
+    <t>Newsletter_Sign-ups</t>
   </si>
 </sst>
 </file>
@@ -433,12 +433,12 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -460,7 +460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -471,7 +471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -482,7 +482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -493,7 +493,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -504,7 +504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -515,7 +515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -526,7 +526,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -537,7 +537,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -548,7 +548,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -559,7 +559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -570,7 +570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -581,7 +581,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -592,7 +592,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -603,7 +603,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -614,7 +614,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -625,7 +625,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -636,7 +636,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -647,7 +647,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -658,7 +658,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -669,7 +669,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -680,7 +680,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -691,7 +691,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -702,7 +702,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -713,7 +713,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -730,6 +730,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
+    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -993,30 +1016,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB362965-53BE-4CDF-AA6E-EB3C0A035CA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
-    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0D002F-B8E9-47AA-ADDE-AA813C8CBBFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C295BF6-C116-4C7B-B837-783B109C27E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1033,29 +1058,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0D002F-B8E9-47AA-ADDE-AA813C8CBBFA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB362965-53BE-4CDF-AA6E-EB3C0A035CA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>